--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -349,74 +349,74 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>67538</v>
+        <v>66661</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>000107D2</v>
+        <v>00010465</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>67311</v>
+        <v>66782</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>000106EF</v>
+        <v>000104DE</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>67542</v>
+        <v>66663</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C8" si="0">DEC2HEX($B3,8)</f>
-        <v>000107D6</v>
+        <v>00010467</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>67552</v>
+        <v>66666</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>000107E0</v>
+        <v>0001046A</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>67403</v>
+        <v>66511</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>0001074B</v>
+        <v>000103CF</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>67415</v>
+        <v>66444</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>00010757</v>
+        <v>0001038C</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>67002</v>
+        <v>66757</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>000105BA</v>
+        <v>000104C5</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>67504</v>
+        <v>66469</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>000107B0</v>
+        <v>000103A5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C8"/>
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -349,74 +349,62 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>66661</v>
+        <v>66725</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>00010465</v>
+        <v>000104A5</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>66782</v>
+        <v>66727</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>000104DE</v>
+        <v>000104A7</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>66663</v>
+        <v>66995</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C8" si="0">DEC2HEX($B3,8)</f>
-        <v>00010467</v>
+        <v>000105B3</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>66666</v>
+        <v>66976</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0001046A</v>
+        <v>000105A0</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>66511</v>
-      </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>000103CF</v>
+        <v>00000000</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>66444</v>
-      </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>0001038C</v>
+        <v>00000000</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>66757</v>
-      </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>000104C5</v>
+        <v>00000000</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>66469</v>
-      </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>000103A5</v>
+        <v>00000000</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -349,62 +349,74 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>66725</v>
+        <v>67620</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>000104A5</v>
+        <v>00010824</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>66727</v>
+        <v>67626</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>000104A7</v>
+        <v>0001082A</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>66995</v>
+        <v>67609</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C8" si="0">DEC2HEX($B3,8)</f>
-        <v>000105B3</v>
+        <v>00010819</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>66976</v>
+        <v>67611</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>000105A0</v>
+        <v>0001081B</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>67353</v>
+      </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>00000000</v>
+        <v>00010719</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>67337</v>
+      </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>00000000</v>
+        <v>00010709</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>67581</v>
+      </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>00000000</v>
+        <v>000107FD</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>67589</v>
+      </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>00000000</v>
+        <v>00010805</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -349,74 +349,74 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>67620</v>
+        <v>66669</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>00010824</v>
+        <v>0001046D</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>67626</v>
+        <v>66869</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>0001082A</v>
+        <v>00010535</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>67609</v>
+        <v>66627</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C8" si="0">DEC2HEX($B3,8)</f>
-        <v>00010819</v>
+        <v>00010443</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>67611</v>
+        <v>66756</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0001081B</v>
+        <v>000104C4</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>67353</v>
+        <v>66535</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>00010719</v>
+        <v>000103E7</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>67337</v>
+        <v>66547</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>00010709</v>
+        <v>000103F3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>67581</v>
+        <v>66729</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>000107FD</v>
+        <v>000104A9</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>67589</v>
+        <v>66726</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>00010805</v>
+        <v>000104A6</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -336,87 +336,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>66669</v>
+        <v>71203</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>0001046D</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+        <v>00011623</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("0x", C1)</f>
+        <v>0x00011623</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>66869</v>
+        <v>71207</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>00010535</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>00011627</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D8" si="0">CONCATENATE("0x", C2)</f>
+        <v>0x00011627</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>66627</v>
+        <v>71251</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" si="0">DEC2HEX($B3,8)</f>
-        <v>00010443</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C8" si="1">DEC2HEX($B3,8)</f>
+        <v>00011653</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>0x00011653</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>66756</v>
+        <v>71219</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>000104C4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>00011633</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>0x00011633</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>66535</v>
+        <v>70183</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>000103E7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>00011227</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>0x00011227</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>66547</v>
+        <v>71184</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>000103F3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>00011610</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>0x00011610</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>66729</v>
+        <v>70138</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>000104A9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>000111FA</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x000111FA</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>66726</v>
+        <v>71151</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>000104A6</v>
+        <f t="shared" si="1"/>
+        <v>000115EF</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>0x000115EF</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D1" sqref="D1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -350,28 +350,28 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>71203</v>
+        <v>71224</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>00011623</v>
+        <v>00011638</v>
       </c>
       <c r="D1" t="str">
         <f>CONCATENATE("0x", C1)</f>
-        <v>0x00011623</v>
+        <v>0x00011638</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>71207</v>
+        <v>70801</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>00011627</v>
+        <v>00011491</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D8" si="0">CONCATENATE("0x", C2)</f>
-        <v>0x00011627</v>
+        <v>0x00011491</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -389,67 +389,67 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>71219</v>
+        <v>71213</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>00011633</v>
+        <v>0001162D</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>0x00011633</v>
+        <v>0x0001162D</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>70183</v>
+        <v>70174</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>00011227</v>
+        <v>0001121E</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>0x00011227</v>
+        <v>0x0001121E</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>71184</v>
+        <v>70190</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>00011610</v>
+        <v>0001122E</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>0x00011610</v>
+        <v>0x0001122E</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>70138</v>
+        <v>70184</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>000111FA</v>
+        <v>00011228</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>0x000111FA</v>
+        <v>0x00011228</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>71151</v>
+        <v>71117</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>000115EF</v>
+        <v>000115CD</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>0x000115EF</v>
+        <v>0x000115CD</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D8"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -350,106 +350,88 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>71224</v>
+        <v>70947</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>00011638</v>
+        <v>00011523</v>
       </c>
       <c r="D1" t="str">
         <f>CONCATENATE("0x", C1)</f>
-        <v>0x00011638</v>
+        <v>0x00011523</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>70801</v>
+        <v>70499</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>00011491</v>
+        <v>00011363</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D8" si="0">CONCATENATE("0x", C2)</f>
-        <v>0x00011491</v>
+        <v>0x00011363</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>71251</v>
-      </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C8" si="1">DEC2HEX($B3,8)</f>
-        <v>00011653</v>
+        <v>00000000</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>0x00011653</v>
+        <v>0x00000000</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>71213</v>
-      </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>0001162D</v>
+        <v>00000000</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>0x0001162D</v>
+        <v>0x00000000</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>70174</v>
-      </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>0001121E</v>
+        <v>00000000</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>0x0001121E</v>
+        <v>0x00000000</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>70190</v>
-      </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>0001122E</v>
+        <v>00000000</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>0x0001122E</v>
+        <v>0x00000000</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>70184</v>
-      </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>00011228</v>
+        <v>00000000</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>0x00011228</v>
+        <v>0x00000000</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>71117</v>
-      </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>000115CD</v>
+        <v>00000000</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>0x000115CD</v>
+        <v>0x00000000</v>
       </c>
     </row>
   </sheetData>
